--- a/Stroopdata.xlsx
+++ b/Stroopdata.xlsx
@@ -148,12 +148,12 @@
         <v>-7.199</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D25" si="2">(C2-(-6.176))^2</f>
-        <v>1.046529</v>
+        <f t="shared" ref="D2:D25" si="2">(C2-($G$2))^2</f>
+        <v>0.5864368767</v>
       </c>
       <c r="G2">
-        <f>average(C2,C25)</f>
-        <v>-6.176</v>
+        <f>AVERAGE(C2:C25)</f>
+        <v>-7.964791667</v>
       </c>
     </row>
     <row r="3">
@@ -169,7 +169,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="2"/>
-        <v>17.859076</v>
+        <v>36.17771879</v>
       </c>
     </row>
     <row r="4">
@@ -185,14 +185,14 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>29.964676</v>
+        <v>13.58076046</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G4">
-        <f>sum(D2,D25)/(23)</f>
-        <v>0.09100252174</v>
+        <f>sum(D2:D25)/(23)</f>
+        <v>23.66654087</v>
       </c>
     </row>
     <row r="5">
@@ -208,14 +208,14 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>0.776161</v>
+        <v>0.8240857101</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="G5">
         <f>SQRT(G4)</f>
-        <v>0.3016662423</v>
+        <v>4.86482691</v>
       </c>
     </row>
     <row r="6">
@@ -231,7 +231,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>3.833764</v>
+        <v>0.02863146007</v>
       </c>
     </row>
     <row r="7">
@@ -247,7 +247,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>6.071296</v>
+        <v>0.4559062934</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
@@ -270,14 +270,14 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>13.719616</v>
+        <v>3.66802296</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8">
         <f>G5/G7</f>
-        <v>0.06157736385</v>
+        <v>0.9930286348</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>4.977361</v>
+        <v>0.1955482101</v>
       </c>
     </row>
     <row r="10">
@@ -309,14 +309,14 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>26.884225</v>
+        <v>11.53423104</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10">
         <f>(B29)/(G8)</f>
-        <v>-129.3460968</v>
+        <v>-8.020706944</v>
       </c>
     </row>
     <row r="11">
@@ -332,7 +332,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>31.651876</v>
+        <v>14.72416779</v>
       </c>
     </row>
     <row r="12">
@@ -348,14 +348,14 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>15.8404</v>
+        <v>33.27895729</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12">
         <f>B29/G5</f>
-        <v>-26.40266145</v>
+        <v>-1.637219949</v>
       </c>
     </row>
     <row r="13">
@@ -371,7 +371,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>8.0089</v>
+        <v>21.33323646</v>
       </c>
     </row>
     <row r="14">
@@ -387,7 +387,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>13.980121</v>
+        <v>30.55648071</v>
       </c>
     </row>
     <row r="15">
@@ -403,7 +403,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>7.700625</v>
+        <v>20.82819438</v>
       </c>
     </row>
     <row r="16">
@@ -419,18 +419,18 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>118.352641</v>
+        <v>82.63188754</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G16">
         <f>B29+(-2.064*G8)</f>
-        <v>-8.091887346</v>
+        <v>-10.01440277</v>
       </c>
       <c r="H16">
         <f>B29+(2.064*G8)</f>
-        <v>-7.837695988</v>
+        <v>-5.915180564</v>
       </c>
     </row>
     <row r="17">
@@ -446,7 +446,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>14.837904</v>
+        <v>4.256828627</v>
       </c>
     </row>
     <row r="18">
@@ -462,7 +462,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0.219024</v>
+        <v>1.744490627</v>
       </c>
     </row>
     <row r="19">
@@ -478,7 +478,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>13.060996</v>
+        <v>3.33138546</v>
       </c>
     </row>
     <row r="20">
@@ -494,7 +494,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.009025</v>
+        <v>3.548671043</v>
       </c>
     </row>
     <row r="21">
@@ -510,7 +510,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>247.842049</v>
+        <v>194.7199302</v>
       </c>
     </row>
     <row r="22">
@@ -526,7 +526,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>22.791076</v>
+        <v>8.911468793</v>
       </c>
     </row>
     <row r="23">
@@ -542,7 +542,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>5.997601</v>
+        <v>17.95887821</v>
       </c>
     </row>
     <row r="24">
@@ -558,7 +558,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>14.653584</v>
+        <v>31.54834863</v>
       </c>
     </row>
     <row r="25">
@@ -574,7 +574,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>1.046529</v>
+        <v>7.906172377</v>
       </c>
     </row>
     <row r="26">
